--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1082">
   <si>
     <t>anchor score</t>
   </si>
@@ -400,559 +400,559 @@
     <t>uncertainty</t>
   </si>
   <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>attorney</t>
+  </si>
+  <si>
+    <t>lack</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>idiots</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>plum</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>wipe</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>ban</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>attorney</t>
-  </si>
-  <si>
-    <t>lack</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>damn</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>idiots</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>plum</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>wipe</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>economic</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
   </si>
   <si>
     <t>better</t>
@@ -3628,7 +3628,7 @@
         <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3807,7 +3807,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K5">
         <v>0.8503937007874016</v>
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K6">
         <v>0.847457627118644</v>
@@ -3957,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K8">
         <v>0.7643312101910829</v>
@@ -4057,7 +4057,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K10">
         <v>0.7111111111111111</v>
@@ -4107,7 +4107,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K11">
         <v>0.7092198581560284</v>
@@ -4157,28 +4157,28 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="K12">
-        <v>0.6810344827586207</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L12">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="M12">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="N12">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O12">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4207,28 +4207,28 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>310</v>
       </c>
       <c r="K13">
-        <v>0.6777777777777778</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L13">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4257,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K14">
         <v>0.5977011494252874</v>
@@ -4307,7 +4307,7 @@
         <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K15">
         <v>0.5833333333333334</v>
@@ -4357,7 +4357,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K16">
         <v>0.5774278215223098</v>
@@ -4407,28 +4407,28 @@
         <v>100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>129</v>
+        <v>312</v>
       </c>
       <c r="K17">
-        <v>0.5749235474006116</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="L17">
         <v>188</v>
       </c>
       <c r="M17">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4457,7 +4457,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K18">
         <v>0.5441176470588235</v>
@@ -4507,7 +4507,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K19">
         <v>0.532871972318339</v>
@@ -4607,7 +4607,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K21">
         <v>0.4912280701754386</v>
@@ -4707,7 +4707,7 @@
         <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K23">
         <v>0.4493670886075949</v>
@@ -4807,7 +4807,7 @@
         <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K25">
         <v>0.4375</v>
@@ -4907,7 +4907,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K27">
         <v>0.4047619047619048</v>
@@ -5157,7 +5157,7 @@
         <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K32">
         <v>0.3617021276595745</v>
@@ -5207,7 +5207,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K33">
         <v>0.3584905660377358</v>
@@ -5407,7 +5407,7 @@
         <v>19</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K37">
         <v>0.34375</v>
@@ -5457,7 +5457,7 @@
         <v>15</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K38">
         <v>0.3392857142857143</v>
@@ -5757,7 +5757,7 @@
         <v>13</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K44">
         <v>0.3309002433090024</v>
@@ -5807,7 +5807,7 @@
         <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K45">
         <v>0.3291925465838509</v>
@@ -6157,7 +6157,7 @@
         <v>14</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K52">
         <v>0.3</v>
@@ -6607,7 +6607,7 @@
         <v>20</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K61">
         <v>0.2842105263157895</v>
@@ -6657,7 +6657,7 @@
         <v>11</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K62">
         <v>0.2802547770700637</v>
@@ -6807,7 +6807,7 @@
         <v>24</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K65">
         <v>0.2659574468085106</v>
@@ -6957,7 +6957,7 @@
         <v>29</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K68">
         <v>0.262396694214876</v>
@@ -7007,7 +7007,7 @@
         <v>25</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K69">
         <v>0.2592592592592592</v>
@@ -7507,7 +7507,7 @@
         <v>5</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K79">
         <v>0.2424242424242424</v>
@@ -7557,7 +7557,7 @@
         <v>31</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K80">
         <v>0.2419354838709677</v>
@@ -7657,7 +7657,7 @@
         <v>27</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K82">
         <v>0.2394366197183098</v>
@@ -7857,7 +7857,7 @@
         <v>29</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K86">
         <v>0.2368421052631579</v>
@@ -7957,7 +7957,7 @@
         <v>6</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K88">
         <v>0.2348484848484849</v>
@@ -8257,7 +8257,7 @@
         <v>70</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K94">
         <v>0.2291666666666667</v>
@@ -8307,7 +8307,7 @@
         <v>7</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K95">
         <v>0.2285714285714286</v>
@@ -8407,7 +8407,7 @@
         <v>7</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K97">
         <v>0.2268292682926829</v>
@@ -8457,7 +8457,7 @@
         <v>29</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K98">
         <v>0.2263513513513513</v>
@@ -8607,7 +8607,7 @@
         <v>8</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K101">
         <v>0.2247557003257329</v>
@@ -8757,7 +8757,7 @@
         <v>16</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K104">
         <v>0.2229102167182662</v>
@@ -9157,7 +9157,7 @@
         <v>9</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K112">
         <v>0.2173913043478261</v>
@@ -9257,7 +9257,7 @@
         <v>10</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K114">
         <v>0.2142857142857143</v>
@@ -9407,7 +9407,7 @@
         <v>10</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K117">
         <v>0.2093023255813954</v>
@@ -9457,7 +9457,7 @@
         <v>20</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K118">
         <v>0.2090909090909091</v>
@@ -9607,7 +9607,7 @@
         <v>21</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K121">
         <v>0.2058165548098434</v>
@@ -9686,28 +9686,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.08641975308641975</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C123">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K123">
         <v>0.2020136407924651</v>
@@ -9736,25 +9736,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.08552631578947369</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C124">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>381</v>
@@ -9942,16 +9942,16 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
         <v>11</v>
@@ -10042,16 +10042,16 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>11</v>
@@ -10186,13 +10186,13 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -10204,10 +10204,10 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K133">
         <v>0.2</v>
@@ -10236,13 +10236,13 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -10254,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>390</v>
@@ -10289,10 +10289,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -10304,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>391</v>
@@ -10336,25 +10336,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>392</v>
@@ -10386,13 +10386,13 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -10404,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>393</v>
@@ -10436,25 +10436,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
         <v>3</v>
       </c>
-      <c r="D138">
-        <v>123</v>
-      </c>
       <c r="E138">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F138">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>394</v>
@@ -10486,13 +10486,13 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>395</v>
@@ -10542,13 +10542,13 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F140">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
@@ -10589,22 +10589,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>397</v>
@@ -10642,13 +10642,13 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E142">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F142">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
@@ -10657,7 +10657,7 @@
         <v>13</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K142">
         <v>0.1971830985915493</v>
@@ -10689,25 +10689,25 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K143">
         <v>0.195375176970269</v>
@@ -10736,25 +10736,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>398</v>
@@ -10786,7 +10786,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10804,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>399</v>
@@ -10839,25 +10839,25 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K146">
         <v>0.1929824561403509</v>
@@ -10886,7 +10886,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>400</v>
@@ -10936,28 +10936,28 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E148">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="F148">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K148">
         <v>0.1923076923076923</v>
@@ -11042,22 +11042,22 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <v>15</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K150">
         <v>0.1923076923076923</v>
@@ -11086,25 +11086,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>402</v>
@@ -11136,25 +11136,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>403</v>
@@ -11186,25 +11186,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
       <c r="D153">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E153">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F153">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>404</v>
@@ -11236,28 +11236,28 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K154">
         <v>0.1914893617021277</v>
@@ -11286,28 +11286,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K155">
         <v>0.1904761904761905</v>
@@ -11342,16 +11342,16 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
         <v>17</v>
@@ -11386,25 +11386,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>406</v>
@@ -11436,25 +11436,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>407</v>
@@ -11486,25 +11486,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E159">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F159">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>408</v>
@@ -11586,25 +11586,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>410</v>
@@ -11636,7 +11636,7 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -11654,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>411</v>
@@ -11686,25 +11686,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>412</v>
@@ -11736,25 +11736,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>413</v>
@@ -11786,25 +11786,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="F165">
-        <v>0.01000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>414</v>
@@ -11836,25 +11836,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E166">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F166">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>415</v>
@@ -11886,25 +11886,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>416</v>
@@ -11936,25 +11936,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04545454545454546</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D168">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="E168">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F168">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>417</v>
@@ -11986,25 +11986,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>418</v>
@@ -12036,25 +12036,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0425531914893617</v>
+        <v>0.04</v>
       </c>
       <c r="C170">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>419</v>
@@ -12086,25 +12086,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E171">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F171">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>420</v>
@@ -12136,28 +12136,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.04</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K172">
         <v>0.1785714285714286</v>
@@ -12186,25 +12186,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>421</v>
@@ -12236,25 +12236,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E174">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F174">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>422</v>
@@ -12292,16 +12292,16 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
         <v>25</v>
@@ -12342,13 +12342,13 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E176">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F176">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
@@ -12392,13 +12392,13 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E177">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F177">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
@@ -12436,25 +12436,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>426</v>
@@ -12486,25 +12486,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.03846153846153846</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F179">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>427</v>
@@ -12536,25 +12536,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>428</v>
@@ -12592,13 +12592,13 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E181">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F181">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
@@ -12607,7 +12607,7 @@
         <v>27</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K181">
         <v>0.172360248447205</v>
@@ -12692,16 +12692,16 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>27</v>
@@ -12736,25 +12736,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03571428571428571</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184">
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>123</v>
@@ -12786,25 +12786,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.03571428571428571</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>431</v>
@@ -12836,25 +12836,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03389830508474576</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>432</v>
@@ -12886,25 +12886,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03389830508474576</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E187">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F187">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>433</v>
@@ -12942,13 +12942,13 @@
         <v>1</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E188">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F188">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
@@ -12986,25 +12986,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E189">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F189">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>435</v>
@@ -13036,25 +13036,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03333333333333333</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="F190">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>436</v>
@@ -13086,25 +13086,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03225806451612903</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>437</v>
@@ -13136,25 +13136,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.03076923076923077</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E192">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="F192">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>438</v>
@@ -13186,25 +13186,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>439</v>
@@ -13236,25 +13236,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E194">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F194">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>440</v>
@@ -13286,25 +13286,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>441</v>
@@ -13336,25 +13336,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E196">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F196">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>442</v>
@@ -13392,16 +13392,16 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
         <v>36</v>
@@ -13436,25 +13436,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02702702702702703</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E198">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="F198">
-        <v>0.17</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>444</v>
@@ -13486,25 +13486,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E199">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F199">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>445</v>
@@ -13536,25 +13536,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02666666666666667</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E200">
-        <v>0.33</v>
+        <v>0.95</v>
       </c>
       <c r="F200">
-        <v>0.6699999999999999</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>446</v>
@@ -13592,13 +13592,13 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E201">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F201">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
@@ -13636,25 +13636,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02631578947368421</v>
+        <v>0.02611940298507463</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D202">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E202">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F202">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>448</v>
@@ -13686,25 +13686,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E203">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F203">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>449</v>
@@ -13736,25 +13736,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02611940298507463</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="C204">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D204">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="E204">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F204">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>450</v>
@@ -13786,25 +13786,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>451</v>
@@ -13836,25 +13836,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02512562814070352</v>
+        <v>0.025</v>
       </c>
       <c r="C206">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E206">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F206">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>452</v>
@@ -13886,25 +13886,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.025</v>
+        <v>0.02482269503546099</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>453</v>
@@ -13936,25 +13936,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E208">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F208">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>454</v>
@@ -13986,25 +13986,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02482269503546099</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C209">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D209">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="E209">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>275</v>
+        <v>162</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>455</v>
@@ -14036,25 +14036,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E210">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F210">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>456</v>
@@ -14086,28 +14086,28 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02409638554216868</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C211">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K211">
         <v>0.1651162790697674</v>
@@ -14136,28 +14136,28 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E212">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F212">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K212">
         <v>0.1639344262295082</v>
@@ -14186,28 +14186,28 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="E213">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="F213">
-        <v>0.01000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K213">
         <v>0.1637931034482759</v>
@@ -14242,13 +14242,13 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E214">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F214">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
@@ -14257,7 +14257,7 @@
         <v>42</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K214">
         <v>0.1612903225806452</v>
@@ -14286,28 +14286,28 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E215">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F215">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K215">
         <v>0.1612903225806452</v>
@@ -14336,28 +14336,28 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E216">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F216">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K216">
         <v>0.1610169491525424</v>
@@ -14386,25 +14386,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02272727272727273</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E217">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F217">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>457</v>
@@ -14436,25 +14436,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>458</v>
@@ -14486,28 +14486,28 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02247191011235955</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C219">
         <v>2</v>
       </c>
       <c r="D219">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E219">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K219">
         <v>0.1574074074074074</v>
@@ -14542,22 +14542,22 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
         <v>44</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K220">
         <v>0.1558441558441558</v>
@@ -14586,25 +14586,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>459</v>
@@ -14636,28 +14636,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02222222222222222</v>
+        <v>0.02158273381294964</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E222">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F222">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K222">
         <v>0.1547619047619048</v>
@@ -14686,25 +14686,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E223">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F223">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>460</v>
@@ -14736,25 +14736,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02158273381294964</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="E224">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F224">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>461</v>
@@ -14786,25 +14786,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E225">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F225">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>462</v>
@@ -14836,28 +14836,28 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E226">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F226">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K226">
         <v>0.1531531531531531</v>
@@ -14886,25 +14886,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E227">
-        <v>0.9399999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F227">
-        <v>0.06000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>463</v>
@@ -14936,28 +14936,28 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.02040816326530612</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E228">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F228">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K228">
         <v>0.1515151515151515</v>
@@ -14986,25 +14986,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.02040816326530612</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E229">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>464</v>
@@ -15036,25 +15036,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0202020202020202</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="C230">
         <v>2</v>
       </c>
       <c r="D230">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E230">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F230">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>465</v>
@@ -15086,25 +15086,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>466</v>
@@ -15136,25 +15136,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01941747572815534</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E232">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F232">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>467</v>
@@ -15192,13 +15192,13 @@
         <v>2</v>
       </c>
       <c r="D233">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E233">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F233">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
@@ -15236,25 +15236,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E234">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F234">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>469</v>
@@ -15286,25 +15286,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E235">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F235">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>470</v>
@@ -15336,28 +15336,28 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01886792452830189</v>
+        <v>0.01857585139318885</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D236">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="E236">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F236">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K236">
         <v>0.1466666666666667</v>
@@ -15386,25 +15386,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E237">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F237">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>471</v>
@@ -15436,25 +15436,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01857585139318885</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C238">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>317</v>
+        <v>54</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>472</v>
@@ -15486,25 +15486,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01818181818181818</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="C239">
         <v>2</v>
       </c>
       <c r="D239">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E239">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F239">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>473</v>
@@ -15536,25 +15536,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>474</v>
@@ -15586,25 +15586,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01801801801801802</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E241">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F241">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>475</v>
@@ -15639,22 +15639,22 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E242">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F242">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>476</v>
@@ -15686,25 +15686,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01754385964912281</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D243">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E243">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F243">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>56</v>
+        <v>904</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>477</v>
@@ -15736,25 +15736,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01754385964912281</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="C244">
         <v>2</v>
       </c>
       <c r="D244">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E244">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F244">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>478</v>
@@ -15786,25 +15786,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01739130434782609</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C245">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E245">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F245">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>904</v>
+        <v>57</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>479</v>
@@ -15836,25 +15836,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01739130434782609</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E246">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F246">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>480</v>
@@ -15886,25 +15886,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E247">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F247">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>481</v>
@@ -15936,25 +15936,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E248">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F248">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>482</v>
@@ -15986,25 +15986,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E249">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F249">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>483</v>
@@ -16036,25 +16036,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01612903225806452</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="E250">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F250">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>484</v>
@@ -16086,25 +16086,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01612903225806452</v>
+        <v>0.015625</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E251">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F251">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>485</v>
@@ -16136,25 +16136,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01568627450980392</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C252">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="E252">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F252">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>486</v>
@@ -16186,25 +16186,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.015625</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E253">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F253">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>487</v>
@@ -16236,25 +16236,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01538461538461539</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E254">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F254">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>488</v>
@@ -16286,25 +16286,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01515151515151515</v>
+        <v>0.01388085598611914</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D255">
-        <v>13</v>
+        <v>438</v>
       </c>
       <c r="E255">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F255">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>65</v>
+        <v>1705</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>489</v>
@@ -16336,25 +16336,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01388888888888889</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E256">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F256">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>490</v>
@@ -16386,25 +16386,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01388085598611914</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C257">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>438</v>
+        <v>4</v>
       </c>
       <c r="E257">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F257">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>1705</v>
+        <v>75</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>491</v>
@@ -16436,25 +16436,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01324503311258278</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E258">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F258">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>492</v>
@@ -16486,25 +16486,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0131578947368421</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E259">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F259">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>493</v>
@@ -16536,25 +16536,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0131578947368421</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>494</v>
@@ -16589,22 +16589,22 @@
         <v>0.01298701298701299</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E261">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F261">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>495</v>
@@ -16636,25 +16636,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.01298701298701299</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E262">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F262">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>496</v>
@@ -16686,25 +16686,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01298701298701299</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E263">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F263">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>497</v>
@@ -16736,25 +16736,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.01290322580645161</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="C264">
         <v>2</v>
       </c>
       <c r="D264">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="E264">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F264">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>498</v>
@@ -16786,25 +16786,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.01265822784810127</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E265">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F265">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>499</v>
@@ -16836,25 +16836,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.01226993865030675</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C266">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D266">
-        <v>222</v>
+        <v>3</v>
       </c>
       <c r="E266">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F266">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H266">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>500</v>
@@ -16886,25 +16886,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01219512195121951</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E267">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F267">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>501</v>
@@ -16936,25 +16936,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0119047619047619</v>
+        <v>0.01126760563380282</v>
       </c>
       <c r="C268">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D268">
-        <v>3</v>
+        <v>650</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F268">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268">
-        <v>249</v>
+        <v>2457</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>502</v>
@@ -16986,25 +16986,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01136363636363636</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E269">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="F269">
-        <v>0.01000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>503</v>
@@ -17036,25 +17036,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.01126760563380282</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C270">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D270">
-        <v>650</v>
+        <v>12</v>
       </c>
       <c r="E270">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F270">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>2457</v>
+        <v>88</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>504</v>
@@ -17086,25 +17086,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.01123595505617977</v>
+        <v>0.0111317254174397</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D271">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="E271">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F271">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>88</v>
+        <v>533</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>505</v>
@@ -17136,25 +17136,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E272">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F272">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>506</v>
@@ -17186,25 +17186,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.0111317254174397</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C273">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D273">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="E273">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F273">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>533</v>
+        <v>89</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>507</v>
@@ -17236,28 +17236,28 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.01111111111111111</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E274">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F274">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K274">
         <v>0.14</v>
@@ -17286,25 +17286,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.01111111111111111</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E275">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F275">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>508</v>
@@ -17336,25 +17336,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.0108695652173913</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E276">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F276">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>509</v>
@@ -17386,13 +17386,13 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.01052631578947368</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D277">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E277">
         <v>0.9399999999999999</v>
@@ -17404,7 +17404,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>510</v>
@@ -17436,25 +17436,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.01020408163265306</v>
+        <v>0.01</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E278">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F278">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>511</v>
@@ -17486,28 +17486,28 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.01020408163265306</v>
+        <v>0.009881422924901186</v>
       </c>
       <c r="C279">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D279">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E279">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F279">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>194</v>
+        <v>501</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K279">
         <v>0.1363636363636364</v>
@@ -17536,25 +17536,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.01</v>
+        <v>0.009762900976290097</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D280">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="E280">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F280">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>99</v>
+        <v>710</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>512</v>
@@ -17586,25 +17586,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.009881422924901186</v>
+        <v>0.009655172413793104</v>
       </c>
       <c r="C281">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D281">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="E281">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F281">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>501</v>
+        <v>718</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>513</v>
@@ -17636,25 +17636,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.009762900976290097</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C282">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D282">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="E282">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F282">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>710</v>
+        <v>104</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>514</v>
@@ -17686,25 +17686,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.009655172413793104</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C283">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D283">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="E283">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F283">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>718</v>
+        <v>111</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>515</v>
@@ -17736,25 +17736,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.009523809523809525</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E284">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F284">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>516</v>
@@ -17786,25 +17786,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.008928571428571428</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E285">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F285">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>517</v>
@@ -17836,28 +17836,28 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.008928571428571428</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D286">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="E286">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F286">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>111</v>
+        <v>687</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K286">
         <v>0.1361355081555835</v>
@@ -17886,25 +17886,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.008849557522123894</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E287">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F287">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>518</v>
@@ -17936,25 +17936,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.008658008658008658</v>
+        <v>0.008</v>
       </c>
       <c r="C288">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D288">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="E288">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F288">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>687</v>
+        <v>124</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>519</v>
@@ -17986,25 +17986,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.008264462809917356</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E289">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F289">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>520</v>
@@ -18036,28 +18036,28 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.008</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E290">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F290">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K290">
         <v>0.1349693251533742</v>
@@ -18086,25 +18086,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.007518796992481203</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D291">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="E291">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F291">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>132</v>
+        <v>456</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>521</v>
@@ -18136,25 +18136,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.007042253521126761</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E292">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F292">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>522</v>
@@ -18186,28 +18186,28 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.006535947712418301</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="C293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="E293">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F293">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>456</v>
+        <v>176</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K293">
         <v>0.1333333333333333</v>
@@ -18236,25 +18236,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.006097560975609756</v>
+        <v>0.005571030640668524</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="E294">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F294">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>163</v>
+        <v>357</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>523</v>
@@ -18286,28 +18286,28 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.005649717514124294</v>
+        <v>0.005361930294906166</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D295">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E295">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F295">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H295">
-        <v>176</v>
+        <v>371</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K295">
         <v>0.1333333333333333</v>
@@ -18336,25 +18336,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.005571030640668524</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D296">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="E296">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F296">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>357</v>
+        <v>188</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>524</v>
@@ -18386,25 +18386,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.005361930294906166</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="C297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D297">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E297">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F297">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H297">
-        <v>371</v>
+        <v>204</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>525</v>
@@ -18436,25 +18436,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.005291005291005291</v>
+        <v>0.004743833017077799</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D298">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="E298">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F298">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>188</v>
+        <v>1049</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>526</v>
@@ -18486,25 +18486,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.004878048780487805</v>
+        <v>0.0046982291290206</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D299">
-        <v>23</v>
+        <v>447</v>
       </c>
       <c r="E299">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F299">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>204</v>
+        <v>2754</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>527</v>
@@ -18536,25 +18536,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.004743833017077799</v>
+        <v>0.004184100418410041</v>
       </c>
       <c r="C300">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D300">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="E300">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F300">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>1049</v>
+        <v>238</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>528</v>
@@ -18586,13 +18586,13 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.0046982291290206</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="C301">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D301">
-        <v>447</v>
+        <v>34</v>
       </c>
       <c r="E301">
         <v>0.97</v>
@@ -18604,7 +18604,7 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>2754</v>
+        <v>247</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>529</v>
@@ -18636,25 +18636,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.004184100418410041</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E302">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="F302">
-        <v>0.01000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>530</v>
@@ -18686,25 +18686,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.004032258064516129</v>
+        <v>0.002994011976047904</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E303">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F303">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>531</v>
@@ -18732,30 +18732,6 @@
       </c>
     </row>
     <row r="304" spans="1:17">
-      <c r="A304" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B304">
-        <v>0.003484320557491289</v>
-      </c>
-      <c r="C304">
-        <v>1</v>
-      </c>
-      <c r="D304">
-        <v>7</v>
-      </c>
-      <c r="E304">
-        <v>0.86</v>
-      </c>
-      <c r="F304">
-        <v>0.14</v>
-      </c>
-      <c r="G304" t="b">
-        <v>1</v>
-      </c>
-      <c r="H304">
-        <v>286</v>
-      </c>
       <c r="J304" s="1" t="s">
         <v>532</v>
       </c>
@@ -18781,31 +18757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
-      <c r="A305" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B305">
-        <v>0.002994011976047904</v>
-      </c>
-      <c r="C305">
-        <v>1</v>
-      </c>
-      <c r="D305">
-        <v>27</v>
-      </c>
-      <c r="E305">
-        <v>0.96</v>
-      </c>
-      <c r="F305">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G305" t="b">
-        <v>1</v>
-      </c>
-      <c r="H305">
-        <v>333</v>
-      </c>
+    <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
         <v>533</v>
       </c>
@@ -18831,9 +18783,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="10:17">
       <c r="J306" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K306">
         <v>0.1300448430493273</v>
@@ -18857,7 +18809,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
         <v>534</v>
       </c>
@@ -18883,7 +18835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
         <v>535</v>
       </c>
@@ -18909,7 +18861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
         <v>536</v>
       </c>
@@ -18935,9 +18887,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K310">
         <v>0.128</v>
@@ -18961,7 +18913,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
         <v>537</v>
       </c>
@@ -18987,7 +18939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
         <v>538</v>
       </c>
@@ -19013,7 +18965,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
         <v>539</v>
       </c>
@@ -19039,9 +18991,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K314">
         <v>0.1259842519685039</v>
@@ -19065,9 +19017,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K315">
         <v>0.1259842519685039</v>
@@ -19091,7 +19043,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="10:17">
       <c r="J316" s="1" t="s">
         <v>540</v>
       </c>
@@ -19117,7 +19069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="10:17">
       <c r="J317" s="1" t="s">
         <v>541</v>
       </c>
@@ -19143,7 +19095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="10:17">
       <c r="J318" s="1" t="s">
         <v>542</v>
       </c>
@@ -19169,7 +19121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="10:17">
       <c r="J319" s="1" t="s">
         <v>543</v>
       </c>
@@ -19195,7 +19147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="10:17">
       <c r="J320" s="1" t="s">
         <v>544</v>
       </c>
@@ -20315,7 +20267,7 @@
     </row>
     <row r="363" spans="10:17">
       <c r="J363" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K363">
         <v>0.1240875912408759</v>
@@ -20367,7 +20319,7 @@
     </row>
     <row r="365" spans="10:17">
       <c r="J365" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K365">
         <v>0.1230769230769231</v>
@@ -20419,7 +20371,7 @@
     </row>
     <row r="367" spans="10:17">
       <c r="J367" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K367">
         <v>0.1224489795918367</v>
@@ -20445,7 +20397,7 @@
     </row>
     <row r="368" spans="10:17">
       <c r="J368" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K368">
         <v>0.1219512195121951</v>
@@ -20471,7 +20423,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K369">
         <v>0.1212121212121212</v>
@@ -20653,7 +20605,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K376">
         <v>0.1181102362204724</v>
@@ -20679,7 +20631,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K377">
         <v>0.1178571428571429</v>
@@ -20965,7 +20917,7 @@
     </row>
     <row r="388" spans="10:17">
       <c r="J388" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K388">
         <v>0.1176470588235294</v>
@@ -21251,7 +21203,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K399">
         <v>0.1111111111111111</v>
@@ -21433,7 +21385,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K406">
         <v>0.1111111111111111</v>
@@ -22291,7 +22243,7 @@
     </row>
     <row r="439" spans="10:17">
       <c r="J439" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K439">
         <v>0.1071428571428571</v>
@@ -22317,7 +22269,7 @@
     </row>
     <row r="440" spans="10:17">
       <c r="J440" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K440">
         <v>0.1060606060606061</v>
@@ -22343,7 +22295,7 @@
     </row>
     <row r="441" spans="10:17">
       <c r="J441" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K441">
         <v>0.1058823529411765</v>
@@ -22447,7 +22399,7 @@
     </row>
     <row r="445" spans="10:17">
       <c r="J445" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K445">
         <v>0.1052631578947368</v>
@@ -23591,7 +23543,7 @@
     </row>
     <row r="489" spans="10:17">
       <c r="J489" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K489">
         <v>0.0975609756097561</v>
@@ -23643,7 +23595,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K491">
         <v>0.09734513274336283</v>
@@ -23721,7 +23673,7 @@
     </row>
     <row r="494" spans="10:17">
       <c r="J494" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K494">
         <v>0.09677419354838709</v>
@@ -23903,7 +23855,7 @@
     </row>
     <row r="501" spans="10:17">
       <c r="J501" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K501">
         <v>0.0948905109489051</v>
@@ -23929,7 +23881,7 @@
     </row>
     <row r="502" spans="10:17">
       <c r="J502" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K502">
         <v>0.09375</v>
@@ -24033,7 +23985,7 @@
     </row>
     <row r="506" spans="10:17">
       <c r="J506" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K506">
         <v>0.09345794392523364</v>
@@ -24085,7 +24037,7 @@
     </row>
     <row r="508" spans="10:17">
       <c r="J508" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K508">
         <v>0.09259259259259259</v>
@@ -24111,7 +24063,7 @@
     </row>
     <row r="509" spans="10:17">
       <c r="J509" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K509">
         <v>0.092560553633218</v>
@@ -24137,7 +24089,7 @@
     </row>
     <row r="510" spans="10:17">
       <c r="J510" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K510">
         <v>0.09183673469387756</v>
@@ -24163,7 +24115,7 @@
     </row>
     <row r="511" spans="10:17">
       <c r="J511" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K511">
         <v>0.09146341463414634</v>
@@ -24449,7 +24401,7 @@
     </row>
     <row r="522" spans="10:17">
       <c r="J522" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K522">
         <v>0.09090909090909091</v>
@@ -25151,7 +25103,7 @@
     </row>
     <row r="549" spans="10:17">
       <c r="J549" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K549">
         <v>0.08695652173913043</v>
@@ -25749,7 +25701,7 @@
     </row>
     <row r="572" spans="10:17">
       <c r="J572" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K572">
         <v>0.08235294117647059</v>
@@ -25775,7 +25727,7 @@
     </row>
     <row r="573" spans="10:17">
       <c r="J573" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K573">
         <v>0.08163265306122448</v>
@@ -26061,7 +26013,7 @@
     </row>
     <row r="584" spans="10:17">
       <c r="J584" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K584">
         <v>0.07894736842105263</v>
@@ -26217,7 +26169,7 @@
     </row>
     <row r="590" spans="10:17">
       <c r="J590" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K590">
         <v>0.07692307692307693</v>
@@ -26815,7 +26767,7 @@
     </row>
     <row r="613" spans="10:17">
       <c r="J613" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K613">
         <v>0.07407407407407407</v>
@@ -26867,7 +26819,7 @@
     </row>
     <row r="615" spans="10:17">
       <c r="J615" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K615">
         <v>0.07352941176470588</v>
@@ -26919,7 +26871,7 @@
     </row>
     <row r="617" spans="10:17">
       <c r="J617" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K617">
         <v>0.07272727272727272</v>
@@ -26971,7 +26923,7 @@
     </row>
     <row r="619" spans="10:17">
       <c r="J619" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K619">
         <v>0.07242339832869081</v>
@@ -26997,7 +26949,7 @@
     </row>
     <row r="620" spans="10:17">
       <c r="J620" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K620">
         <v>0.07222222222222222</v>
@@ -27075,7 +27027,7 @@
     </row>
     <row r="623" spans="10:17">
       <c r="J623" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K623">
         <v>0.07142857142857142</v>
@@ -27205,7 +27157,7 @@
     </row>
     <row r="628" spans="10:17">
       <c r="J628" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K628">
         <v>0.07142857142857142</v>
@@ -27933,7 +27885,7 @@
     </row>
     <row r="656" spans="10:17">
       <c r="J656" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K656">
         <v>0.06818181818181818</v>
@@ -28817,7 +28769,7 @@
     </row>
     <row r="690" spans="10:17">
       <c r="J690" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K690">
         <v>0.06382978723404255</v>
@@ -28843,7 +28795,7 @@
     </row>
     <row r="691" spans="10:17">
       <c r="J691" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K691">
         <v>0.06382978723404255</v>
@@ -29311,7 +29263,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K709">
         <v>0.06172839506172839</v>
@@ -29337,7 +29289,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K710">
         <v>0.06153846153846154</v>
@@ -29597,7 +29549,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K720">
         <v>0.05882352941176471</v>
@@ -30689,7 +30641,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K762">
         <v>0.05042016806722689</v>
@@ -31079,7 +31031,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K777">
         <v>0.04864864864864865</v>
@@ -31105,7 +31057,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K778">
         <v>0.04838709677419355</v>
@@ -31495,7 +31447,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K793">
         <v>0.04545454545454546</v>
@@ -32301,7 +32253,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K824">
         <v>0.04117647058823529</v>
@@ -32509,7 +32461,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K832">
         <v>0.03846153846153846</v>
@@ -32795,7 +32747,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K843">
         <v>0.0364963503649635</v>
@@ -32899,7 +32851,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K847">
         <v>0.03571428571428571</v>
@@ -32951,7 +32903,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K849">
         <v>0.03571428571428571</v>
@@ -32977,7 +32929,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K850">
         <v>0.03571428571428571</v>
@@ -33107,7 +33059,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K855">
         <v>0.03448275862068965</v>
@@ -33133,7 +33085,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K856">
         <v>0.03448275862068965</v>
@@ -33705,7 +33657,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K878">
         <v>0.0303030303030303</v>
@@ -33757,7 +33709,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K880">
         <v>0.03</v>
@@ -34147,7 +34099,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K895">
         <v>0.02564102564102564</v>
@@ -34199,7 +34151,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K897">
         <v>0.025</v>
@@ -34641,7 +34593,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K914">
         <v>0.02054794520547945</v>
@@ -34719,7 +34671,7 @@
     </row>
     <row r="917" spans="10:17">
       <c r="J917" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K917">
         <v>0.01923076923076923</v>
@@ -34823,7 +34775,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K921">
         <v>0.01612903225806452</v>
@@ -34875,7 +34827,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K923">
         <v>0.01351351351351351</v>
@@ -34901,7 +34853,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K924">
         <v>0.01111111111111111</v>
@@ -34953,7 +34905,7 @@
     </row>
     <row r="926" spans="10:17">
       <c r="J926" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K926">
         <v>0.01052631578947368</v>
